--- a/openai/ejemplos.xlsx
+++ b/openai/ejemplos.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja 1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="252">
   <si>
     <t>original</t>
   </si>
@@ -19,6 +22,176 @@
     <t>corregido</t>
   </si>
   <si>
+    <t>Algabo ac 0% oliva y argán 750</t>
+  </si>
+  <si>
+    <t>Algabo - Acondicionador 0% Sal - Sin Sal - Oliva y Argan - 750 ml</t>
+  </si>
+  <si>
+    <t>Algabo ac 0% açaí y romero 750</t>
+  </si>
+  <si>
+    <t>Algabo - Acondicionador 0% Sal - Sin Sal - Acai y Romero - 750 ml</t>
+  </si>
+  <si>
+    <t>Algabo ac detox EP 300</t>
+  </si>
+  <si>
+    <t>Algabo - Acondicionador Refrescante Detox - Eco Pack - 300 ml</t>
+  </si>
+  <si>
+    <t>Zombies 2 en 1 autito 450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra Zombies - Shampoo + Gel de Ducha - 2 en 1 - Forma de autito - 450 ml
+Spiderman - Shampoo + Gel de Ducha - 2 en 1 - Forma de autito - 450 ml
+</t>
+  </si>
+  <si>
+    <t>Hello Kitt set bs 125 + sh 200</t>
+  </si>
+  <si>
+    <t>Hello Kitty - Set - Colonia 125 ml + Shampoo 200 ml</t>
+  </si>
+  <si>
+    <t>Sally body splash 125</t>
+  </si>
+  <si>
+    <t>Sally Unicornio - Body Splash o Colonia - 125 ml</t>
+  </si>
+  <si>
+    <t>Algabo foot mujer 60</t>
+  </si>
+  <si>
+    <t>Algabo - Talco Desodorante para pies para Mujer - 60 gr</t>
+  </si>
+  <si>
+    <t>Algabo foot mujer 100</t>
+  </si>
+  <si>
+    <t>Algabo - Talco Desodorante para pies para Mujer - 100 gr</t>
+  </si>
+  <si>
+    <t>Algabo colonia ambre 500</t>
+  </si>
+  <si>
+    <t>Algabo - Colonia Perfume Ambre - 500 ml</t>
+  </si>
+  <si>
+    <t>Kids jabón líquido DP 300</t>
+  </si>
+  <si>
+    <t>Algabo Kids - Jabon Liquido Suave - Doy Pack - 300 ml</t>
+  </si>
+  <si>
+    <t>Algabo foot att p/pies 153</t>
+  </si>
+  <si>
+    <t>Algabo - Desodorante Antitranspirante para pies - 153 ml</t>
+  </si>
+  <si>
+    <t>Hello Kitty bs alegría 125</t>
+  </si>
+  <si>
+    <t>Hello Kitty - Colonia Alegria - 125 ml</t>
+  </si>
+  <si>
+    <t>Spiderman set Bs 125 + Sh 200</t>
+  </si>
+  <si>
+    <t>Spiderman - Set de Baño - Colonia 125 ml + Shampoo 200 ml</t>
+  </si>
+  <si>
+    <t>Frozen body splash 125</t>
+  </si>
+  <si>
+    <t>Princesas - Frozen Body Splash - Colonia - 125 ml</t>
+  </si>
+  <si>
+    <t>Frozen set bs 125 + sh 200</t>
+  </si>
+  <si>
+    <t>Princesas - Set Frozen - Colonia 125 ml + Shampoo 200 ml</t>
+  </si>
+  <si>
+    <t>Algabo foot 100</t>
+  </si>
+  <si>
+    <t>Algabo - Talco Desodorante para Pies - 100 gr</t>
+  </si>
+  <si>
+    <t>Vais perf suave brisa DP 250</t>
+  </si>
+  <si>
+    <t>Vais - Perfume Suave Brisa - Doy Pack - 250 ml</t>
+  </si>
+  <si>
+    <t>Vais perf tela cálida prim 500</t>
+  </si>
+  <si>
+    <t>Vais - Perfumante de Telas Calida Primavera - 500 ml</t>
+  </si>
+  <si>
+    <t>Spiderman 2 en 1 autito 450</t>
+  </si>
+  <si>
+    <t>Spiderman - Shampoo + Gel de Ducha - 2 en 1 - Forma de autito - 450 ml</t>
+  </si>
+  <si>
+    <t>Algabo foot 200</t>
+  </si>
+  <si>
+    <t>Algabo - Talco Desodorante para pies - 200 gr</t>
+  </si>
+  <si>
+    <t>Vais baño EP 900</t>
+  </si>
+  <si>
+    <t>Vais - Limpiador de Baño - Eco Pack - 900 ml</t>
+  </si>
+  <si>
+    <t>Vais antigrasa EP 900</t>
+  </si>
+  <si>
+    <t>Vais - Limpiador Antigrasa - Eco Pack - 900 ml</t>
+  </si>
+  <si>
+    <t>Algabo gel chrome 500</t>
+  </si>
+  <si>
+    <t>Algabo - Gel Capilar Premium Chrome - 500 ml</t>
+  </si>
+  <si>
+    <t>Algabo hisopos tubo 200</t>
+  </si>
+  <si>
+    <t>Algabo - Hisopos de Algodon en Tubo - 200 unidades</t>
+  </si>
+  <si>
+    <t>Algabo gel silver gota 150</t>
+  </si>
+  <si>
+    <t>Algabo - Gel Capilar Silver - 150 ml</t>
+  </si>
+  <si>
+    <t>Algabo espuma manz-mag DP 250</t>
+  </si>
+  <si>
+    <t>Algabo - Jabon en Espuma de Manzana y Magnolia - Doy Pack - 250 ml</t>
+  </si>
+  <si>
+    <t>Ultra sanitizante gel EP 1000</t>
+  </si>
+  <si>
+    <t>Algabo - Gel Sanitizante Ultra - Eco Pack - 1000 ml</t>
+  </si>
+  <si>
+    <t>Algabo sh coco y leche EP 300</t>
+  </si>
+  <si>
+    <t>Algabo - Shampoo Coco y Leche - Eco Pack - 300 ml</t>
+  </si>
+  <si>
     <t>Baby fecula DP 200</t>
   </si>
   <si>
@@ -58,19 +231,10 @@
     <t>Algabo Baby - Colonia Dulces Mimos - 125 ml</t>
   </si>
   <si>
-    <t>Spiderman set Bs 125 + Sh 200</t>
-  </si>
-  <si>
     <t>Avengers - Set Colonia 125 ml + Shampoo 200 ml</t>
   </si>
   <si>
-    <t>Frozen set bs 125 + sh 200</t>
-  </si>
-  <si>
     <t>Frozen - Set Colonia 125 ml + Shampoo 200 ml</t>
-  </si>
-  <si>
-    <t>Hello Kitt set bs 125 + sh 200</t>
   </si>
   <si>
     <t>Hello Kitty Set Colonia 125 ml + Shampoo 200 ml</t>
@@ -613,18 +777,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,46 +805,68 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -698,22 +893,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,4557 +980,4811 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B1029"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.0"/>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col min="1" max="1" style="5" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="50.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A41" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A57" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A67" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A68" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A73" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A75" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A76" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A77" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A78" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A79" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A81" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A82" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A83" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A84" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A85" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A86" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A87" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A88" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A90" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A91" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A92" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A93" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A94" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A95" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A96" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A97" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A98" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A99" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A100" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A101" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A102" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129">
+      <c r="B102" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A103" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A106" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A111" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A112" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A114" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A117" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A119" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A123" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A126" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A127" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838">
+    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839">
+    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840">
+    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841">
+    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842">
+    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843">
+    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844">
+    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845">
+    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846">
+    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847">
+    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848">
+    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849">
+    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850">
+    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851">
+    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852">
+    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853">
+    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854">
+    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855">
+    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856">
+    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857">
+    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858">
+    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859">
+    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860">
+    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861">
+    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862">
+    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863">
+    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864">
+    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865">
+    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866">
+    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867">
+    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868">
+    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869">
+    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870">
+    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871">
+    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872">
+    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873">
+    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874">
+    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875">
+    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876">
+    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877">
+    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878">
+    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879">
+    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880">
+    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881">
+    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882">
+    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883">
+    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884">
+    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885">
+    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886">
+    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887">
+    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888">
+    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889">
+    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890">
+    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891">
+    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892">
+    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893">
+    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894">
+    <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895">
+    <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896">
+    <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897">
+    <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898">
+    <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899">
+    <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900">
+    <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901">
+    <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902">
+    <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903">
+    <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904">
+    <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905">
+    <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906">
+    <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907">
+    <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908">
+    <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909">
+    <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910">
+    <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911">
+    <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912">
+    <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913">
+    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914">
+    <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915">
+    <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916">
+    <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917">
+    <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918">
+    <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919">
+    <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920">
+    <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921">
+    <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922">
+    <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923">
+    <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924">
+    <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925">
+    <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926">
+    <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927">
+    <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928">
+    <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929">
+    <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930">
+    <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931">
+    <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932">
+    <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933">
+    <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934">
+    <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935">
+    <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936">
+    <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937">
+    <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938">
+    <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939">
+    <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940">
+    <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941">
+    <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942">
+    <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943">
+    <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944">
+    <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945">
+    <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946">
+    <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947">
+    <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948">
+    <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949">
+    <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950">
+    <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951">
+    <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952">
+    <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953">
+    <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954">
+    <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955">
+    <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956">
+    <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957">
+    <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958">
+    <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959">
+    <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960">
+    <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961">
+    <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962">
+    <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963">
+    <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964">
+    <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965">
+    <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966">
+    <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967">
+    <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968">
+    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969">
+    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970">
+    <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971">
+    <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972">
+    <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973">
+    <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974">
+    <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975">
+    <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976">
+    <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977">
+    <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978">
+    <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979">
+    <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980">
+    <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981">
+    <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982">
+    <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983">
+    <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984">
+    <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985">
+    <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986">
+    <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987">
+    <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988">
+    <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989">
+    <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990">
+    <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991">
+    <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992">
+    <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993">
+    <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994">
+    <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995">
+    <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996">
+    <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997">
+    <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998">
+    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999">
+    <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000">
+    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001">
+    <row x14ac:dyDescent="0.25" r="1001" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="1002" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1003" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1004" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1005" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1006" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1007" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1008" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1009" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1010" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1011" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1012" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1013" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1014" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1015" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1016" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1017" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1018" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1019" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1020" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1021" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1022" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1023" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1024" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1025" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1026" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1027" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1028" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1029" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/openai/ejemplos.xlsx
+++ b/openai/ejemplos.xlsx
@@ -779,7 +779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +796,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -835,10 +841,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1166,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A124" s="2" t="s">
         <v>242</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A125" s="2" t="s">
         <v>244</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A126" s="2" t="s">
         <v>246</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="45" customFormat="1" s="1">
       <c r="A127" s="2" t="s">
         <v>248</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A128" s="2" t="s">
         <v>250</v>
       </c>
@@ -2180,63 +2186,63 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
